--- a/DICCIONARIO/back/Diccionario.xlsx
+++ b/DICCIONARIO/back/Diccionario.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="90">
   <si>
     <t xml:space="preserve">LOGO EMPRESA</t>
   </si>
@@ -291,13 +291,13 @@
     <t xml:space="preserve">Esta tabla almacenara los usuarios que administraran la venta de las entradas</t>
   </si>
   <si>
-    <t xml:space="preserve">APELLIDO₁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APELLIDO₂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTRASENA</t>
+    <t xml:space="preserve">VENTAS_ENTADAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA_ENTRADA &lt;=HOY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_USUARIOS</t>
   </si>
 </sst>
 </file>
@@ -594,11 +594,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -688,7 +688,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.31983805668016"/>
@@ -698,7 +698,7 @@
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -1091,9 +1091,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="7" min="3" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -1562,13 +1562,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -2051,10 +2051,10 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="7" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.10526315789474"/>
@@ -2470,13 +2470,13 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="7" min="3" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2918,11 +2918,11 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="7" min="3" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3317,11 +3317,11 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="7" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.10526315789474"/>
@@ -3798,13 +3798,13 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="7" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.1943319838057"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.04858299595142"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.1902834008097"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.1052631578947"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4250,23 +4250,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.080971659919"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.914979757085"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.2348178137652"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.1943319838057"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4383,7 +4383,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="9" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="L6" s="9"/>
     </row>
@@ -4444,13 +4444,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>27</v>
@@ -4470,13 +4470,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>26</v>
+        <v>67</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>46</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -4484,20 +4484,26 @@
         <v>27</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="9"/>
+      <c r="I10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="L10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>26</v>
+      <c r="B11" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>50</v>
@@ -4507,7 +4513,9 @@
       <c r="G11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="28"/>
@@ -4517,14 +4525,14 @@
       <c r="A12" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>26</v>
+      <c r="B12" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>46</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -4532,107 +4540,104 @@
         <v>27</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="28"/>
+      <c r="I12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="L12" s="28"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="9"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="18"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
+      <c r="B15" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
       <c r="L15" s="21"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19"/>
-      <c r="B16" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="21"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24" t="s">
+    <row r="16" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="26" t="s">
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="26" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="18" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
     </row>
     <row r="19" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -4644,21 +4649,6 @@
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
-    </row>
-    <row r="20" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -4687,8 +4677,8 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B18:L18"/>
     <mergeCell ref="B19:L19"/>
-    <mergeCell ref="B20:L20"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
